--- a/masterlist.xlsx
+++ b/masterlist.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parvathykrishnank/Documents/GitHub/content/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE0F091D-4873-4B4C-9E8F-AF6835843F30}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16000" windowHeight="10820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16000" windowHeight="10820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="features" sheetId="1" r:id="rId1"/>
@@ -44,18 +45,18 @@
     <t>Big Data, Robotics</t>
   </si>
   <si>
-    <t>ADB</t>
+    <t>ADB, AYF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -63,7 +64,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -95,13 +96,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -369,21 +373,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.5" customWidth="1"/>
+    <col min="1" max="1" width="25.15234375" customWidth="1"/>
+    <col min="2" max="2" width="31.3046875" customWidth="1"/>
+    <col min="3" max="3" width="34.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="20" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -394,7 +398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>

--- a/masterlist.xlsx
+++ b/masterlist.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MACOS/Documents/Github/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE0F091D-4873-4B4C-9E8F-AF6835843F30}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16000" windowHeight="10820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16000" windowHeight="10820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="features" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Featured</t>
   </si>
@@ -46,17 +45,23 @@
   </si>
   <si>
     <t>ADB, AYF</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Hi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -64,7 +69,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -96,7 +101,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -373,21 +378,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.15234375" customWidth="1"/>
-    <col min="2" max="2" width="31.3046875" customWidth="1"/>
-    <col min="3" max="3" width="34.4609375" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -398,7 +403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -407,6 +412,14 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/masterlist.xlsx
+++ b/masterlist.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MACOS/Documents/Github/content/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,11 +14,8 @@
   <sheets>
     <sheet name="features" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Featured</t>
   </si>
@@ -61,7 +58,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -69,7 +66,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -379,20 +376,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.5" customWidth="1"/>
+    <col min="1" max="1" width="25.15234375" customWidth="1"/>
+    <col min="2" max="2" width="31.3046875" customWidth="1"/>
+    <col min="3" max="3" width="34.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="20" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -414,12 +411,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/masterlist.xlsx
+++ b/masterlist.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MACOS/Documents/Github/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,8 +14,11 @@
   <sheets>
     <sheet name="features" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Featured</t>
   </si>
@@ -48,6 +51,12 @@
   </si>
   <si>
     <t>Hi</t>
+  </si>
+  <si>
+    <t>Another change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd time around </t>
   </si>
 </sst>
 </file>
@@ -58,7 +67,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -66,7 +75,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -376,20 +385,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.15234375" customWidth="1"/>
-    <col min="2" max="2" width="31.3046875" customWidth="1"/>
-    <col min="3" max="3" width="34.4609375" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -400,7 +409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -411,7 +420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -419,12 +428,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/masterlist.xlsx
+++ b/masterlist.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MACOS/Documents/Github/content/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16000" windowHeight="10820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="16005" windowHeight="10815" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="features" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Featured</t>
   </si>
@@ -51,6 +43,15 @@
   </si>
   <si>
     <t>Hi</t>
+  </si>
+  <si>
+    <t>Circular Economy</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>SBT</t>
   </si>
 </sst>
 </file>
@@ -159,7 +160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -194,7 +195,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -371,7 +372,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -379,20 +380,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -414,12 +415,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/masterlist.xlsx
+++ b/masterlist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Featured</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>SBT</t>
+  </si>
+  <si>
+    <t>arslan</t>
+  </si>
+  <si>
+    <t>biotec</t>
+  </si>
+  <si>
+    <t>BIT</t>
   </si>
 </sst>
 </file>
@@ -372,7 +381,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -380,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -434,6 +443,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
